--- a/Analysis/Output/Reg2_Rob.xlsx
+++ b/Analysis/Output/Reg2_Rob.xlsx
@@ -677,76 +677,76 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.7774644483542</v>
+        <v>-4.3984548301784</v>
       </c>
       <c r="C2" t="n">
-        <v>13.8315216199535</v>
+        <v>13.9090661455542</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.200806861650521</v>
+        <v>-0.31622934165025</v>
       </c>
       <c r="E2" t="n">
-        <v>0.84412422726663</v>
+        <v>0.757091023682587</v>
       </c>
       <c r="F2" t="n">
-        <v>-5.83834817320073</v>
+        <v>-5.58269880494168</v>
       </c>
       <c r="G2" t="n">
-        <v>16.9766024212995</v>
+        <v>17.0115096583844</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.343905572405685</v>
+        <v>-0.328171862289139</v>
       </c>
       <c r="I2" t="n">
-        <v>0.737277027247654</v>
+        <v>0.748833183934986</v>
       </c>
       <c r="J2" t="n">
-        <v>12.6051026458647</v>
+        <v>12.5970212527315</v>
       </c>
       <c r="K2" t="n">
-        <v>0.104952155763543</v>
+        <v>0.10560636264693</v>
       </c>
       <c r="L2" t="n">
-        <v>120.103322834683</v>
+        <v>119.282786917362</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0000000000000646610859099979</v>
+        <v>0.0000000000000517850573375119</v>
       </c>
       <c r="N2" t="n">
-        <v>13.0236758074468</v>
+        <v>13.0070236724178</v>
       </c>
       <c r="O2" t="n">
-        <v>0.132457720860721</v>
+        <v>0.124412116698387</v>
       </c>
       <c r="P2" t="n">
-        <v>98.3232666455222</v>
+        <v>104.547885025948</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.00000000000000000000000175643563649122</v>
+        <v>0.000000000000000000000000470164186766221</v>
       </c>
       <c r="R2" t="n">
-        <v>13.4498222893973</v>
+        <v>13.4486827811266</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0490672551833499</v>
+        <v>0.0493292738591152</v>
       </c>
       <c r="T2" t="n">
-        <v>274.109938270221</v>
+        <v>272.630868630585</v>
       </c>
       <c r="U2" t="n">
-        <v>0.00000000000000000000000000000120982947701232</v>
+        <v>0.00000000000000000000000000000131885485615105</v>
       </c>
       <c r="V2" t="n">
-        <v>13.5431671155213</v>
+        <v>13.5377901363173</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0605148826103044</v>
+        <v>0.0606875912293613</v>
       </c>
       <c r="X2" t="n">
-        <v>223.798948809581</v>
+        <v>223.073446516485</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0000000000000000000000000000302452024058201</v>
+        <v>0.0000000000000000000000000000284110745694833</v>
       </c>
     </row>
     <row r="3">
@@ -754,76 +754,76 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>0.017860265181338</v>
+        <v>0.0177798151833794</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0102417932124966</v>
+        <v>0.0105306330938705</v>
       </c>
       <c r="D3" t="n">
-        <v>1.74386113942874</v>
+        <v>1.68838995954843</v>
       </c>
       <c r="E3" t="n">
-        <v>0.101876850149736</v>
+        <v>0.112250651992875</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0145009581401137</v>
+        <v>0.0140948210358175</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0121985825041061</v>
+        <v>0.0123670609833787</v>
       </c>
       <c r="H3" t="n">
-        <v>1.18874124392999</v>
+        <v>1.13970660084566</v>
       </c>
       <c r="I3" t="n">
-        <v>0.253235659195516</v>
+        <v>0.272489297307132</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0153746297159247</v>
+        <v>0.014910488725969</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0122350373474575</v>
+        <v>0.0124381816786297</v>
       </c>
       <c r="L3" t="n">
-        <v>1.2566066845002</v>
+        <v>1.19876756194895</v>
       </c>
       <c r="M3" t="n">
-        <v>0.228334942221578</v>
+        <v>0.249429006525824</v>
       </c>
       <c r="N3" t="n">
-        <v>0.00726822066509551</v>
+        <v>0.00702666984190393</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0121871362188655</v>
+        <v>0.0123144547339027</v>
       </c>
       <c r="P3" t="n">
-        <v>0.596384625113523</v>
+        <v>0.570603408249895</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.55992036986127</v>
+        <v>0.576820392488707</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0314940054916764</v>
+        <v>0.0315791143382065</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0246640255507116</v>
+        <v>0.0246313330282194</v>
       </c>
       <c r="T3" t="n">
-        <v>1.27692072921842</v>
+        <v>1.28207086080267</v>
       </c>
       <c r="U3" t="n">
-        <v>0.221285535700118</v>
+        <v>0.219521705031853</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0533575279998392</v>
+        <v>0.0587243318425252</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0231958652705369</v>
+        <v>0.0215722963019427</v>
       </c>
       <c r="X3" t="n">
-        <v>2.30030341086751</v>
+        <v>2.72221051577326</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0353373624517759</v>
+        <v>0.0151397863905344</v>
       </c>
     </row>
     <row r="4">
@@ -831,64 +831,64 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0000522475773778416</v>
+        <v>0.000079926387263953</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0000796510303999538</v>
+        <v>0.0000808346379069799</v>
       </c>
       <c r="D4" t="n">
-        <v>0.655956076343137</v>
+        <v>0.988764090907761</v>
       </c>
       <c r="E4" t="n">
-        <v>0.526566808645525</v>
+        <v>0.345756143854566</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0000942920295056725</v>
+        <v>0.000108493851775097</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0000793188790102098</v>
+        <v>0.0000835202395795288</v>
       </c>
       <c r="H4" t="n">
-        <v>1.18877158480184</v>
+        <v>1.29901269825487</v>
       </c>
       <c r="I4" t="n">
-        <v>0.26162497260431</v>
+        <v>0.222433711832751</v>
       </c>
       <c r="J4" t="n">
-        <v>0.000152997999034418</v>
+        <v>0.000170512938340166</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00010852095815711</v>
+        <v>0.00011227674817717</v>
       </c>
       <c r="L4" t="n">
-        <v>1.40984747676957</v>
+        <v>1.51868433231697</v>
       </c>
       <c r="M4" t="n">
-        <v>0.188450135221219</v>
+        <v>0.159043902359204</v>
       </c>
       <c r="N4" t="n">
-        <v>0.000113193934370752</v>
+        <v>0.00013623348975503</v>
       </c>
       <c r="O4" t="n">
-        <v>0.000159509578710553</v>
+        <v>0.000162125535811275</v>
       </c>
       <c r="P4" t="n">
-        <v>0.709637222327283</v>
+        <v>0.840296311579285</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.494099679119129</v>
+        <v>0.420106871847617</v>
       </c>
       <c r="R4" t="n">
-        <v>0.000990178638676679</v>
+        <v>0.00100421046794591</v>
       </c>
       <c r="S4" t="n">
-        <v>0.000277252202318019</v>
+        <v>0.000277327426156062</v>
       </c>
       <c r="T4" t="n">
-        <v>3.57140044478674</v>
+        <v>3.6210283341425</v>
       </c>
       <c r="U4" t="n">
-        <v>0.00516457721800062</v>
+        <v>0.00471692356315114</v>
       </c>
       <c r="V4"/>
       <c r="W4"/>
@@ -900,64 +900,64 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0474686323254226</v>
+        <v>0.035179305945609</v>
       </c>
       <c r="C5" t="n">
-        <v>0.017068812455888</v>
+        <v>0.0127044211377937</v>
       </c>
       <c r="D5" t="n">
-        <v>2.78101551868935</v>
+        <v>2.76906012198824</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0132450734318114</v>
+        <v>0.0135478747068031</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0461480897228322</v>
+        <v>0.0393753734718539</v>
       </c>
       <c r="G5" t="n">
-        <v>0.016267720181442</v>
+        <v>0.0126316550914061</v>
       </c>
       <c r="H5" t="n">
-        <v>2.8367890035063</v>
+        <v>3.11719827583345</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0118073290028252</v>
+        <v>0.00654359413288826</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0430873571718855</v>
+        <v>0.0352076624200317</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0187827497903757</v>
+        <v>0.0145513644041538</v>
       </c>
       <c r="L5" t="n">
-        <v>2.29398558000083</v>
+        <v>2.4195437240223</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0355114360067782</v>
+        <v>0.0276202481211938</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0447033345131995</v>
+        <v>0.0340771137741509</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0228381248049671</v>
+        <v>0.0160219931353084</v>
       </c>
       <c r="P5" t="n">
-        <v>1.95739951922309</v>
+        <v>2.1268960413579</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0677863084460966</v>
+        <v>0.0490965394371793</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0680075952553579</v>
+        <v>0.0501285898534382</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0302619051171512</v>
+        <v>0.0164823418902839</v>
       </c>
       <c r="T5" t="n">
-        <v>2.24730052493668</v>
+        <v>3.04135117370597</v>
       </c>
       <c r="U5" t="n">
-        <v>0.038942870431342</v>
+        <v>0.00768090663573045</v>
       </c>
       <c r="V5"/>
       <c r="W5"/>
@@ -969,64 +969,64 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0509310314248722</v>
+        <v>0.0400700637453573</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0163250670222163</v>
+        <v>0.0183773266692189</v>
       </c>
       <c r="D6" t="n">
-        <v>3.11980534937845</v>
+        <v>2.18040765485617</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00665575559699916</v>
+        <v>0.0446102404918417</v>
       </c>
       <c r="F6" t="n">
-        <v>0.049812777509829</v>
+        <v>0.0475187224390066</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0169973881584326</v>
+        <v>0.0154547073648966</v>
       </c>
       <c r="H6" t="n">
-        <v>2.93061363578476</v>
+        <v>3.07470865135494</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00986751470308989</v>
+        <v>0.00731049432744774</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0422482802988654</v>
+        <v>0.0398285487786199</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0181173789645062</v>
+        <v>0.0164747585452648</v>
       </c>
       <c r="L6" t="n">
-        <v>2.33192010729775</v>
+        <v>2.41754977283521</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0332160296316432</v>
+        <v>0.0280317860657301</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0400020096118083</v>
+        <v>0.0377278839995204</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0197513450062536</v>
+        <v>0.0182141525818637</v>
       </c>
       <c r="P6" t="n">
-        <v>2.0252802834006</v>
+        <v>2.07134994779208</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0600037993937113</v>
+        <v>0.0549947804970854</v>
       </c>
       <c r="R6" t="n">
-        <v>0.055933329888456</v>
+        <v>0.0526892391421254</v>
       </c>
       <c r="S6" t="n">
-        <v>0.021465799429325</v>
+        <v>0.0197968950137822</v>
       </c>
       <c r="T6" t="n">
-        <v>2.60569516977988</v>
+        <v>2.66149005212404</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0192285989268899</v>
+        <v>0.0171656519289344</v>
       </c>
       <c r="V6"/>
       <c r="W6"/>
@@ -1038,64 +1038,64 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0327244700521794</v>
+        <v>0.0257043468287358</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0166614800310627</v>
+        <v>0.0193363796133489</v>
       </c>
       <c r="D7" t="n">
-        <v>1.964079420986</v>
+        <v>1.32932572398355</v>
       </c>
       <c r="E7" t="n">
-        <v>0.06694058449701</v>
+        <v>0.202168517757792</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0306759388485943</v>
+        <v>0.0307329235469705</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0155652207553659</v>
+        <v>0.0156039539139087</v>
       </c>
       <c r="H7" t="n">
-        <v>1.97080011460931</v>
+        <v>1.96956000488931</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0661136007729475</v>
+        <v>0.0662682197836699</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0209015762355976</v>
+        <v>0.0210041115734376</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0162990498115177</v>
+        <v>0.0163805463494759</v>
       </c>
       <c r="L7" t="n">
-        <v>1.28238004529734</v>
+        <v>1.28225952451882</v>
       </c>
       <c r="M7" t="n">
-        <v>0.217794073724255</v>
+        <v>0.217836392436183</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0247375193498018</v>
+        <v>0.025154367319598</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0190965506606662</v>
+        <v>0.0194186025281706</v>
       </c>
       <c r="P7" t="n">
-        <v>1.29539202075663</v>
+        <v>1.29537474610269</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.213364091031627</v>
+        <v>0.213370509657051</v>
       </c>
       <c r="R7" t="n">
-        <v>0.043562827304315</v>
+        <v>0.0440509836476354</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0165901493078481</v>
+        <v>0.0169280703982946</v>
       </c>
       <c r="T7" t="n">
-        <v>2.62582490946645</v>
+        <v>2.60224482833397</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0182376587341904</v>
+        <v>0.0191367479952871</v>
       </c>
       <c r="V7"/>
       <c r="W7"/>
@@ -1107,64 +1107,64 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0131332006780153</v>
+        <v>0.00627565029772601</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0193240634584265</v>
+        <v>0.0241397928655169</v>
       </c>
       <c r="D8" t="n">
-        <v>0.679629349503527</v>
+        <v>0.259971174263497</v>
       </c>
       <c r="E8" t="n">
-        <v>0.507234554252697</v>
+        <v>0.79846547540786</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0169660784761013</v>
+        <v>0.0171899425544175</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0198285728902517</v>
+        <v>0.0199505672245016</v>
       </c>
       <c r="H8" t="n">
-        <v>0.855637900418053</v>
+        <v>0.861626757825023</v>
       </c>
       <c r="I8" t="n">
-        <v>0.405845638256073</v>
+        <v>0.402645768861236</v>
       </c>
       <c r="J8" t="n">
-        <v>0.00372638226344267</v>
+        <v>0.00398221870462062</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0198551062765367</v>
+        <v>0.020020439870743</v>
       </c>
       <c r="L8" t="n">
-        <v>0.187678787085932</v>
+        <v>0.198907652895283</v>
       </c>
       <c r="M8" t="n">
-        <v>0.853678860674955</v>
+        <v>0.8450433858151</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0131814651650443</v>
+        <v>0.0135297712743087</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0251758463847592</v>
+        <v>0.0254607687258175</v>
       </c>
       <c r="P8" t="n">
-        <v>0.523575849788472</v>
+        <v>0.531396809735337</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.608333653667649</v>
+        <v>0.603037644602953</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0347750402013047</v>
+        <v>0.0351388073291118</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0359677308639784</v>
+        <v>0.0361321389121059</v>
       </c>
       <c r="T8" t="n">
-        <v>0.966839980337258</v>
+        <v>0.972508364771582</v>
       </c>
       <c r="U8" t="n">
-        <v>0.349179387723627</v>
+        <v>0.346445916360433</v>
       </c>
       <c r="V8"/>
       <c r="W8"/>
@@ -1176,64 +1176,64 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0839319758254698</v>
+        <v>0.0752155456100802</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0225780707563993</v>
+        <v>0.0284783520808622</v>
       </c>
       <c r="D9" t="n">
-        <v>3.71741132052574</v>
+        <v>2.64114810423409</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00205180392945415</v>
+        <v>0.0184568023979335</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0864488057553691</v>
+        <v>0.0873078378777831</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0231090269494693</v>
+        <v>0.0233066296787952</v>
       </c>
       <c r="H9" t="n">
-        <v>3.74091068154448</v>
+        <v>3.74605162054887</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0019553468076577</v>
+        <v>0.00193492982911912</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0719876052473592</v>
+        <v>0.0730303970416745</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0222908379447075</v>
+        <v>0.0226435140130595</v>
       </c>
       <c r="L9" t="n">
-        <v>3.2294705755757</v>
+        <v>3.22522365563731</v>
       </c>
       <c r="M9" t="n">
-        <v>0.00559144204168088</v>
+        <v>0.00564052843905141</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0781017197264168</v>
+        <v>0.0790443420870791</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0292772471198554</v>
+        <v>0.0298115487074583</v>
       </c>
       <c r="P9" t="n">
-        <v>2.66765927160718</v>
+        <v>2.65146714995399</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.017528070772342</v>
+        <v>0.0181057344814964</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0833334556145294</v>
+        <v>0.0839262889331718</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0555825373749774</v>
+        <v>0.0557008141316432</v>
       </c>
       <c r="T9" t="n">
-        <v>1.49927404451394</v>
+        <v>1.50673361317162</v>
       </c>
       <c r="U9" t="n">
-        <v>0.154525652339601</v>
+        <v>0.152620441786709</v>
       </c>
       <c r="V9"/>
       <c r="W9"/>
@@ -1245,64 +1245,64 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>0.12438814659385</v>
+        <v>0.115616725122425</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0260149533453096</v>
+        <v>0.0313440355247296</v>
       </c>
       <c r="D10" t="n">
-        <v>4.78140955867894</v>
+        <v>3.6886355948393</v>
       </c>
       <c r="E10" t="n">
-        <v>0.000240356751765429</v>
+        <v>0.00217447333946418</v>
       </c>
       <c r="F10" t="n">
-        <v>0.127189353195065</v>
+        <v>0.1279732034638</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0265074074743454</v>
+        <v>0.0267320765027544</v>
       </c>
       <c r="H10" t="n">
-        <v>4.79825698979286</v>
+        <v>4.7872526270308</v>
       </c>
       <c r="I10" t="n">
-        <v>0.000232528554500259</v>
+        <v>0.000237651000398034</v>
       </c>
       <c r="J10" t="n">
-        <v>0.105503114699882</v>
+        <v>0.106417454011997</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0262637229529978</v>
+        <v>0.0266709132923829</v>
       </c>
       <c r="L10" t="n">
-        <v>4.01706623576152</v>
+        <v>3.9900191210321</v>
       </c>
       <c r="M10" t="n">
-        <v>0.00111322018651824</v>
+        <v>0.0011763963965323</v>
       </c>
       <c r="N10" t="n">
-        <v>0.113036541427994</v>
+        <v>0.113781040959055</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0342442313050978</v>
+        <v>0.0347018438647766</v>
       </c>
       <c r="P10" t="n">
-        <v>3.30089294225642</v>
+        <v>3.27881830724697</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.00483594203135245</v>
+        <v>0.00506022067129232</v>
       </c>
       <c r="R10" t="n">
-        <v>0.097615540291346</v>
+        <v>0.0982673150248768</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0593282723294289</v>
+        <v>0.0594368882635676</v>
       </c>
       <c r="T10" t="n">
-        <v>1.64534607967887</v>
+        <v>1.65330517622523</v>
       </c>
       <c r="U10" t="n">
-        <v>0.120673539799841</v>
+        <v>0.119027542916948</v>
       </c>
       <c r="V10"/>
       <c r="W10"/>
@@ -1314,64 +1314,64 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0945060376228295</v>
+        <v>0.0874719521295343</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0305537828881631</v>
+        <v>0.0369219908474571</v>
       </c>
       <c r="D11" t="n">
-        <v>3.09310431277045</v>
+        <v>2.36910172289799</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00706258167854966</v>
+        <v>0.0309227641089567</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0859735959258727</v>
+        <v>0.0874908966321941</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0334038849757819</v>
+        <v>0.0339731835743509</v>
       </c>
       <c r="H11" t="n">
-        <v>2.57376038709881</v>
+        <v>2.57529284650992</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0205492913497424</v>
+        <v>0.0204857778384673</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0538033528582525</v>
+        <v>0.0555618185071041</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0431224379072549</v>
+        <v>0.0434887570995757</v>
       </c>
       <c r="L11" t="n">
-        <v>1.24768810552802</v>
+        <v>1.27761339281058</v>
       </c>
       <c r="M11" t="n">
-        <v>0.230326064544384</v>
+        <v>0.219844504332235</v>
       </c>
       <c r="N11" t="n">
-        <v>0.118917319289707</v>
+        <v>0.117457635557517</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0479001464849271</v>
+        <v>0.0470728684802493</v>
       </c>
       <c r="P11" t="n">
-        <v>2.48260867693019</v>
+        <v>2.49523004120303</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0247205709864599</v>
+        <v>0.024104276905476</v>
       </c>
       <c r="R11" t="n">
-        <v>0.419443116017896</v>
+        <v>0.41981705997336</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0711151457849749</v>
+        <v>0.0712212467549163</v>
       </c>
       <c r="T11" t="n">
-        <v>5.89808417585379</v>
+        <v>5.8945480330893</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0000239172465650791</v>
+        <v>0.0000240775487633591</v>
       </c>
       <c r="V11"/>
       <c r="W11"/>
@@ -1383,52 +1383,52 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0267834145747339</v>
+        <v>0.0261900879976951</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0226571040522084</v>
+        <v>0.0229329374841051</v>
       </c>
       <c r="D12" t="n">
-        <v>1.18211994405893</v>
+        <v>1.14202936347982</v>
       </c>
       <c r="E12" t="n">
-        <v>0.252056831991573</v>
+        <v>0.267928258262306</v>
       </c>
       <c r="F12" t="n">
-        <v>0.014550126216952</v>
+        <v>0.0144010141949366</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0245033272016898</v>
+        <v>0.0245398728621894</v>
       </c>
       <c r="H12" t="n">
-        <v>0.593802061948086</v>
+        <v>0.586841434583201</v>
       </c>
       <c r="I12" t="n">
-        <v>0.559832382308365</v>
+        <v>0.5644012060467</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.011777533603049</v>
+        <v>-0.011935037653327</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0236927076593399</v>
+        <v>0.0236969651972988</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.497095299211451</v>
+        <v>-0.503652579727273</v>
       </c>
       <c r="M12" t="n">
-        <v>0.624992299972102</v>
+        <v>0.620465490740439</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0341395333236979</v>
+        <v>0.0346799557804485</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0185843692595809</v>
+        <v>0.0186407430905583</v>
       </c>
       <c r="P12" t="n">
-        <v>1.83700252867597</v>
+        <v>1.8604384820911</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0826601460728716</v>
+        <v>0.0791183550452666</v>
       </c>
       <c r="R12"/>
       <c r="S12"/>
@@ -1444,52 +1444,52 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0476787044024117</v>
+        <v>0.0499439362849528</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0156971684636298</v>
+        <v>0.0157071847225045</v>
       </c>
       <c r="D13" t="n">
-        <v>3.03740795754871</v>
+        <v>3.17968733209048</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00698735382352537</v>
+        <v>0.00511697137663156</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0576639967991145</v>
+        <v>0.0576342991622555</v>
       </c>
       <c r="G13" t="n">
-        <v>0.017915699232381</v>
+        <v>0.0178569167145302</v>
       </c>
       <c r="H13" t="n">
-        <v>3.2186294294834</v>
+        <v>3.22756162688257</v>
       </c>
       <c r="I13" t="n">
-        <v>0.00468108968333694</v>
+        <v>0.00460023857142646</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0872611657147179</v>
+        <v>0.0875822322122574</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0245557667795105</v>
+        <v>0.0244709988526975</v>
       </c>
       <c r="L13" t="n">
-        <v>3.55359156560849</v>
+        <v>3.57902154870981</v>
       </c>
       <c r="M13" t="n">
-        <v>0.00223557215336196</v>
+        <v>0.00211841373128004</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0929456044411933</v>
+        <v>0.0929518440072794</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0263945027600809</v>
+        <v>0.0265992870062106</v>
       </c>
       <c r="P13" t="n">
-        <v>3.52140009175563</v>
+        <v>3.4945238940268</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0023699046265537</v>
+        <v>0.0025237318196015</v>
       </c>
       <c r="R13"/>
       <c r="S13"/>
@@ -1505,52 +1505,52 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0567696814573988</v>
+        <v>0.0568927600708827</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0102311589729552</v>
+        <v>0.00942408435530111</v>
       </c>
       <c r="D14" t="n">
-        <v>5.5487048542069</v>
+        <v>6.03695361012767</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0000432538423596569</v>
+        <v>0.0000171063736985082</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0595233733207659</v>
+        <v>0.0584552905804399</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0104318215167399</v>
+        <v>0.00966662983390903</v>
       </c>
       <c r="H14" t="n">
-        <v>5.70594245935373</v>
+        <v>6.0471220668229</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0000317909548492506</v>
+        <v>0.0000168009036430713</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0502374797083096</v>
+        <v>0.0495038772535857</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0136609813747205</v>
+        <v>0.0132795786412651</v>
       </c>
       <c r="L14" t="n">
-        <v>3.67744295452109</v>
+        <v>3.72781987974805</v>
       </c>
       <c r="M14" t="n">
-        <v>0.00203095541412828</v>
+        <v>0.00183548899599032</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0685529511050399</v>
+        <v>0.0684470242568488</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0170280004919282</v>
+        <v>0.0171331917641196</v>
       </c>
       <c r="P14" t="n">
-        <v>4.0258955323343</v>
+        <v>3.99499551509081</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.000989479900739663</v>
+        <v>0.00106124908522579</v>
       </c>
       <c r="R14"/>
       <c r="S14"/>
@@ -1566,52 +1566,52 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.101698213459502</v>
+        <v>-0.0987742511251648</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0309195933204861</v>
+        <v>0.0291494511204646</v>
       </c>
       <c r="D15" t="n">
-        <v>-3.2891187282247</v>
+        <v>-3.38854583288601</v>
       </c>
       <c r="E15" t="n">
-        <v>0.00490194397279883</v>
+        <v>0.00400407760449236</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.104742234618087</v>
+        <v>-0.102848134702317</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0298365575292075</v>
+        <v>0.0289130416942549</v>
       </c>
       <c r="H15" t="n">
-        <v>-3.51053349621696</v>
+        <v>-3.55715375054272</v>
       </c>
       <c r="I15" t="n">
-        <v>0.00314186805997066</v>
+        <v>0.00285884688622056</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.111549864861036</v>
+        <v>-0.109301189325864</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0339897754889186</v>
+        <v>0.032878822017524</v>
       </c>
       <c r="L15" t="n">
-        <v>-3.28186530380008</v>
+        <v>-3.32436451852224</v>
       </c>
       <c r="M15" t="n">
-        <v>0.00496814167498835</v>
+        <v>0.00455738365182062</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.186678860218167</v>
+        <v>-0.183004014086638</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0474570659408621</v>
+        <v>0.0450812883457264</v>
       </c>
       <c r="P15" t="n">
-        <v>-3.93363678342008</v>
+        <v>-4.05942289588506</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.00120894854185008</v>
+        <v>0.000929806859536688</v>
       </c>
       <c r="R15"/>
       <c r="S15"/>
@@ -1627,52 +1627,52 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.0620925693875594</v>
+        <v>-0.0660398291620608</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0114444964605708</v>
+        <v>0.010219453192495</v>
       </c>
       <c r="D16" t="n">
-        <v>-5.42553965580608</v>
+        <v>-6.46216856402446</v>
       </c>
       <c r="E16" t="n">
-        <v>0.000155562743589267</v>
+        <v>0.0000314105503873247</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.0687377015280674</v>
+        <v>-0.0704606396733046</v>
       </c>
       <c r="G16" t="n">
-        <v>0.012950440388832</v>
+        <v>0.0130814009033691</v>
       </c>
       <c r="H16" t="n">
-        <v>-5.3077501200148</v>
+        <v>-5.38632216792296</v>
       </c>
       <c r="I16" t="n">
-        <v>0.000186099681819311</v>
+        <v>0.000163304016295024</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0440371818351788</v>
+        <v>-0.0459929742330724</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0123968858446944</v>
+        <v>0.01239372112997</v>
       </c>
       <c r="L16" t="n">
-        <v>-3.55227775643556</v>
+        <v>-3.71098992391025</v>
       </c>
       <c r="M16" t="n">
-        <v>0.00397261009271895</v>
+        <v>0.00296512523929464</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.0910318699723641</v>
+        <v>-0.0967851408052508</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0580562279698051</v>
+        <v>0.0573295861733897</v>
       </c>
       <c r="P16" t="n">
-        <v>-1.56799491037739</v>
+        <v>-1.68822325897365</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.138011609205582</v>
+        <v>0.112328693387633</v>
       </c>
       <c r="R16"/>
       <c r="S16"/>
@@ -1688,52 +1688,52 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>0.000213838615563465</v>
+        <v>0.000212344849498262</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0000177288552115125</v>
+        <v>0.0000176464547344739</v>
       </c>
       <c r="D17" t="n">
-        <v>12.061614414032</v>
+        <v>12.0332867249209</v>
       </c>
       <c r="E17" t="n">
-        <v>0.00000000363225424737132</v>
+        <v>0.00000000375196823626252</v>
       </c>
       <c r="F17" t="n">
-        <v>0.000235821867291205</v>
+        <v>0.000234629593645083</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0000215380418561558</v>
+        <v>0.0000210528290979749</v>
       </c>
       <c r="H17" t="n">
-        <v>10.949085755621</v>
+        <v>11.144801135903</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0000000147639153440142</v>
+        <v>0.0000000113896242506447</v>
       </c>
       <c r="J17" t="n">
-        <v>0.000287311567497325</v>
+        <v>0.000285617263344701</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0000244644653822857</v>
+        <v>0.0000237958376600714</v>
       </c>
       <c r="L17" t="n">
-        <v>11.7440362177447</v>
+        <v>12.0028245033776</v>
       </c>
       <c r="M17" t="n">
-        <v>0.00000000481497666836172</v>
+        <v>0.00000000349264983340545</v>
       </c>
       <c r="N17" t="n">
-        <v>0.000325149219955031</v>
+        <v>0.000323621802145711</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0000189124687213008</v>
+        <v>0.0000184442615386536</v>
       </c>
       <c r="P17" t="n">
-        <v>17.1923203018346</v>
+        <v>17.5459343529421</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.0000000000194997508183188</v>
+        <v>0.0000000000140699676480478</v>
       </c>
       <c r="R17"/>
       <c r="S17"/>
@@ -1749,52 +1749,52 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.0147758147322498</v>
+        <v>-0.0142762408815009</v>
       </c>
       <c r="C18" t="n">
-        <v>0.00517332745785296</v>
+        <v>0.0047616711180966</v>
       </c>
       <c r="D18" t="n">
-        <v>-2.85615299874756</v>
+        <v>-2.99815769032104</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0120605192792622</v>
+        <v>0.00881092780925867</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.015066186187808</v>
+        <v>-0.0144939253384085</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00449264852815096</v>
+        <v>0.00421118115300687</v>
       </c>
       <c r="H18" t="n">
-        <v>-3.35351988774621</v>
+        <v>-3.44177199027866</v>
       </c>
       <c r="I18" t="n">
-        <v>0.00435802503507245</v>
+        <v>0.00348069772487626</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.0112923312033641</v>
+        <v>-0.0106654689185972</v>
       </c>
       <c r="K18" t="n">
-        <v>0.00526410617574902</v>
+        <v>0.00493219875899931</v>
       </c>
       <c r="L18" t="n">
-        <v>-2.1451564285284</v>
+        <v>-2.16241669075823</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0487069160432015</v>
+        <v>0.0466162341131418</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.0172415332164473</v>
+        <v>-0.0163827979897028</v>
       </c>
       <c r="O18" t="n">
-        <v>0.00589938943653262</v>
+        <v>0.00539158013337623</v>
       </c>
       <c r="P18" t="n">
-        <v>-2.92259621134303</v>
+        <v>-3.03858935310749</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.0109210363008508</v>
+        <v>0.00827607449517318</v>
       </c>
       <c r="R18"/>
       <c r="S18"/>
@@ -1810,52 +1810,52 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>0.157254454150476</v>
+        <v>0.152297956643722</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0504211930959995</v>
+        <v>0.0463365395169778</v>
       </c>
       <c r="D19" t="n">
-        <v>3.11881660259547</v>
+        <v>3.2867788192927</v>
       </c>
       <c r="E19" t="n">
-        <v>0.00721537099716162</v>
+        <v>0.00507583913561086</v>
       </c>
       <c r="F19" t="n">
-        <v>0.165158525180833</v>
+        <v>0.158894226341893</v>
       </c>
       <c r="G19" t="n">
-        <v>0.046138725792392</v>
+        <v>0.0431167590249459</v>
       </c>
       <c r="H19" t="n">
-        <v>3.57960741967578</v>
+        <v>3.68520802433137</v>
       </c>
       <c r="I19" t="n">
-        <v>0.00278630822757724</v>
+        <v>0.00220335332943958</v>
       </c>
       <c r="J19" t="n">
-        <v>0.158070431926326</v>
+        <v>0.151313316686059</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0516130169036147</v>
+        <v>0.0480539584166225</v>
       </c>
       <c r="L19" t="n">
-        <v>3.06260787315565</v>
+        <v>3.14882106847868</v>
       </c>
       <c r="M19" t="n">
-        <v>0.00807094025222074</v>
+        <v>0.00670623139790331</v>
       </c>
       <c r="N19" t="n">
-        <v>0.209785168622637</v>
+        <v>0.200966290050819</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0517356156352415</v>
+        <v>0.0467684385507877</v>
       </c>
       <c r="P19" t="n">
-        <v>4.05494679142727</v>
+        <v>4.29704938369028</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.00108097021960655</v>
+        <v>0.000647194946626974</v>
       </c>
       <c r="R19"/>
       <c r="S19"/>
@@ -1871,52 +1871,52 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.0355091632371645</v>
+        <v>-0.0351008362390234</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0169705598391465</v>
+        <v>0.0165993999088077</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.09239786864629</v>
+        <v>-2.11458464955704</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0622640654588834</v>
+        <v>0.0599019565340165</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0489762834394301</v>
+        <v>-0.0482058076242848</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0195339224779967</v>
+        <v>0.0194580183340584</v>
       </c>
       <c r="H20" t="n">
-        <v>-2.50724264389795</v>
+        <v>-2.47742636463177</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0305446779871096</v>
+        <v>0.0320969720764239</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.0258511546447308</v>
+        <v>-0.025995678005173</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0368798466909752</v>
+        <v>0.0367678542636684</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.700956130901077</v>
+        <v>-0.707021895233637</v>
       </c>
       <c r="M20" t="n">
-        <v>0.499004705688056</v>
+        <v>0.495335063475848</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.00174632251760629</v>
+        <v>-0.00153001295886015</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0389691341508579</v>
+        <v>0.0389585246651013</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.0448129668687504</v>
+        <v>-0.0392728670300681</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.965122459565547</v>
+        <v>0.96942936135791</v>
       </c>
       <c r="R20"/>
       <c r="S20"/>
@@ -1932,52 +1932,52 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>0.109227317961045</v>
+        <v>0.10789131840131</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0113218887122766</v>
+        <v>0.0105564087592846</v>
       </c>
       <c r="D21" t="n">
-        <v>9.64744670583165</v>
+        <v>10.2204566781688</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0000000386079138453179</v>
+        <v>0.0000000171553519516978</v>
       </c>
       <c r="F21" t="n">
-        <v>0.118912498340655</v>
+        <v>0.11801342756043</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0144392195581307</v>
+        <v>0.0144525305164174</v>
       </c>
       <c r="H21" t="n">
-        <v>8.23538265776252</v>
+        <v>8.16558923202911</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0000003382054101325</v>
+        <v>0.000000378792826767953</v>
       </c>
       <c r="J21" t="n">
-        <v>0.148975259050406</v>
+        <v>0.147840747214744</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0175789854456189</v>
+        <v>0.0176044342772104</v>
       </c>
       <c r="L21" t="n">
-        <v>8.47462212829436</v>
+        <v>8.39792661818897</v>
       </c>
       <c r="M21" t="n">
-        <v>0.00000022402470597401</v>
+        <v>0.000000253271414678147</v>
       </c>
       <c r="N21" t="n">
-        <v>0.150235613754209</v>
+        <v>0.149108606172993</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0260875327795951</v>
+        <v>0.0265622592827408</v>
       </c>
       <c r="P21" t="n">
-        <v>5.75890464703966</v>
+        <v>5.61355133935757</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.0000269684159483606</v>
+        <v>0.0000358728150421388</v>
       </c>
       <c r="R21"/>
       <c r="S21"/>
@@ -1993,52 +1993,52 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0521205893944427</v>
+        <v>0.0529249077583757</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00474997914570054</v>
+        <v>0.0044552986262439</v>
       </c>
       <c r="D22" t="n">
-        <v>10.9728038367536</v>
+        <v>11.8790932321847</v>
       </c>
       <c r="E22" t="n">
-        <v>0.00000000424069090852026</v>
+        <v>0.00000000128753717493613</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0560332736372258</v>
+        <v>0.0567149681988292</v>
       </c>
       <c r="G22" t="n">
-        <v>0.00638762643881357</v>
+        <v>0.00616783742068248</v>
       </c>
       <c r="H22" t="n">
-        <v>8.77215882518536</v>
+        <v>9.19527612849327</v>
       </c>
       <c r="I22" t="n">
-        <v>0.000000108180695101069</v>
+        <v>0.0000000556549528291124</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0675987320305494</v>
+        <v>0.0683259696666486</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0106017766117573</v>
+        <v>0.0103925726475475</v>
       </c>
       <c r="L22" t="n">
-        <v>6.37617019354876</v>
+        <v>6.57450007653041</v>
       </c>
       <c r="M22" t="n">
-        <v>0.00000713991364360434</v>
+        <v>0.00000490066923624466</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0659479344841913</v>
+        <v>0.0671782103218893</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0133398684581014</v>
+        <v>0.0128066392318671</v>
       </c>
       <c r="P22" t="n">
-        <v>4.94367202280325</v>
+        <v>5.24557685319407</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.000125088618088908</v>
+        <v>0.000066870524283066</v>
       </c>
       <c r="R22"/>
       <c r="S22"/>
@@ -2054,52 +2054,52 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.0375490093709062</v>
+        <v>-0.0383519847061364</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0108452854580806</v>
+        <v>0.0113278404601524</v>
       </c>
       <c r="D23" t="n">
-        <v>-3.46224260449772</v>
+        <v>-3.3856395524854</v>
       </c>
       <c r="E23" t="n">
-        <v>0.00269719075492774</v>
+        <v>0.00320137854475501</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.0399832529417297</v>
+        <v>-0.0398569927955509</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0111789849183341</v>
+        <v>0.0111717105381327</v>
       </c>
       <c r="H23" t="n">
-        <v>-3.57664432270188</v>
+        <v>-3.56767145545939</v>
       </c>
       <c r="I23" t="n">
-        <v>0.00208687247352738</v>
+        <v>0.00212918827198861</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.0360988274155114</v>
+        <v>-0.0361186731428151</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0159461457333097</v>
+        <v>0.015970588700406</v>
       </c>
       <c r="L23" t="n">
-        <v>-2.26379640693394</v>
+        <v>-2.26157431140262</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0358462986984124</v>
+        <v>0.0360070644376566</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.010254990683146</v>
+        <v>-0.0107500655455552</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0170390345602326</v>
+        <v>0.0170540185692874</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.601852801395223</v>
+        <v>-0.630353807923898</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.554588573893898</v>
+        <v>0.536184156595454</v>
       </c>
       <c r="R23"/>
       <c r="S23"/>
@@ -2115,40 +2115,40 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0240724713389495</v>
+        <v>0.0255344676544504</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0123563303549325</v>
+        <v>0.01186748394386</v>
       </c>
       <c r="D24" t="n">
-        <v>1.94818936103793</v>
+        <v>2.15163279556502</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0710767330129922</v>
+        <v>0.0487961138059419</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0251802914389506</v>
+        <v>0.0259415310436265</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0135929644810962</v>
+        <v>0.0136209010730581</v>
       </c>
       <c r="H24" t="n">
-        <v>1.8524503226628</v>
+        <v>1.90453854003376</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0844890365519148</v>
+        <v>0.0769631869488363</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0467532747716245</v>
+        <v>0.0473245377038273</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0216990007001616</v>
+        <v>0.0217231644608283</v>
       </c>
       <c r="L24" t="n">
-        <v>2.15462801341245</v>
+        <v>2.1785287216862</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0484890115352071</v>
+        <v>0.0463800695236837</v>
       </c>
       <c r="N24"/>
       <c r="O24"/>
@@ -2168,40 +2168,40 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.0709544108023307</v>
+        <v>-0.0752745893296125</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0302652490915148</v>
+        <v>0.0289855756977442</v>
       </c>
       <c r="D25" t="n">
-        <v>-2.34441853056559</v>
+        <v>-2.59696719894616</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0568781194782784</v>
+        <v>0.0402845928222783</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.0749416656028635</v>
+        <v>-0.0754777341552802</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0345678075398255</v>
+        <v>0.0345904215055058</v>
       </c>
       <c r="H25" t="n">
-        <v>-2.16796120252994</v>
+        <v>-2.18204146900223</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0725883785066583</v>
+        <v>0.0711823133641074</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.0671319716342371</v>
+        <v>-0.0677048141759855</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0376796698850136</v>
+        <v>0.0376529380736692</v>
       </c>
       <c r="L25" t="n">
-        <v>-1.78164967578279</v>
+        <v>-1.79812831719848</v>
       </c>
       <c r="M25" t="n">
-        <v>0.124343734276026</v>
+        <v>0.121522424747813</v>
       </c>
       <c r="N25"/>
       <c r="O25"/>
@@ -2221,40 +2221,40 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.193794992718628</v>
+        <v>-0.184926350474909</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0418520170529941</v>
+        <v>0.0421338122990809</v>
       </c>
       <c r="D26" t="n">
-        <v>-4.63048154819491</v>
+        <v>-4.38902488011851</v>
       </c>
       <c r="E26" t="n">
-        <v>0.000476237476352927</v>
+        <v>0.000730110804265775</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.187887769378483</v>
+        <v>-0.188666649764815</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0423696239295667</v>
+        <v>0.0419658820752587</v>
       </c>
       <c r="H26" t="n">
-        <v>-4.43449226008753</v>
+        <v>-4.49571510081626</v>
       </c>
       <c r="I26" t="n">
-        <v>0.000694073713398575</v>
+        <v>0.000622122673091236</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.148584453858304</v>
+        <v>-0.149173237241863</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0485508441934507</v>
+        <v>0.0483455254295546</v>
       </c>
       <c r="L26" t="n">
-        <v>-3.06038867761537</v>
+        <v>-3.08556450501767</v>
       </c>
       <c r="M26" t="n">
-        <v>0.00920793770471664</v>
+        <v>0.0087808240708648</v>
       </c>
       <c r="N26"/>
       <c r="O26"/>
@@ -2274,40 +2274,40 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.143667677238995</v>
+        <v>-0.139691863495666</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0813870216697804</v>
+        <v>0.0809900687168001</v>
       </c>
       <c r="D27" t="n">
-        <v>-1.76524062794572</v>
+        <v>-1.72480238267397</v>
       </c>
       <c r="E27" t="n">
-        <v>0.10756739035438</v>
+        <v>0.114940339272396</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.122613455356241</v>
+        <v>-0.121010670934355</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0859808902307928</v>
+        <v>0.0854419025074377</v>
       </c>
       <c r="H27" t="n">
-        <v>-1.42605473177956</v>
+        <v>-1.41629185894849</v>
       </c>
       <c r="I27" t="n">
-        <v>0.183771696296586</v>
+        <v>0.186613373090947</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.0844012002946268</v>
+        <v>-0.082252445375489</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0878684276974738</v>
+        <v>0.0877671477575664</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.960540691421218</v>
+        <v>-0.937166667449303</v>
       </c>
       <c r="M27" t="n">
-        <v>0.358553673381491</v>
+        <v>0.369952810467483</v>
       </c>
       <c r="N27"/>
       <c r="O27"/>
@@ -2327,40 +2327,40 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.137162272554678</v>
+        <v>-0.135079059804075</v>
       </c>
       <c r="C28" t="n">
-        <v>0.037458856682275</v>
+        <v>0.0365564427211754</v>
       </c>
       <c r="D28" t="n">
-        <v>-3.66167803032763</v>
+        <v>-3.69508217291149</v>
       </c>
       <c r="E28" t="n">
-        <v>0.00544311655396018</v>
+        <v>0.00540847692141838</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.120680071624735</v>
+        <v>-0.123381079106446</v>
       </c>
       <c r="G28" t="n">
-        <v>0.034796428900995</v>
+        <v>0.0344746255745594</v>
       </c>
       <c r="H28" t="n">
-        <v>-3.46817404648339</v>
+        <v>-3.57889540640857</v>
       </c>
       <c r="I28" t="n">
-        <v>0.00749535883913125</v>
+        <v>0.00661084668288764</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.124166969034809</v>
+        <v>-0.128130623907407</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0384503969665684</v>
+        <v>0.0373636373944095</v>
       </c>
       <c r="L28" t="n">
-        <v>-3.22927664811286</v>
+        <v>-3.42928667663868</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0109167121180236</v>
+        <v>0.00832491414368722</v>
       </c>
       <c r="N28"/>
       <c r="O28"/>
@@ -2380,40 +2380,40 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.143796819752675</v>
+        <v>-0.144863015178614</v>
       </c>
       <c r="C29" t="n">
-        <v>0.19202331680988</v>
+        <v>0.19769265526769</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.748850827814037</v>
+        <v>-0.732768827362145</v>
       </c>
       <c r="E29" t="n">
-        <v>0.549422944284605</v>
+        <v>0.557410953346515</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.122921542474052</v>
+        <v>-0.11866755123914</v>
       </c>
       <c r="G29" t="n">
-        <v>0.206365726586542</v>
+        <v>0.206426054929885</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.595649018406666</v>
+        <v>-0.574867117813432</v>
       </c>
       <c r="I29" t="n">
-        <v>0.626063501910935</v>
+        <v>0.637076914351273</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.111075383184903</v>
+        <v>-0.10613759327593</v>
       </c>
       <c r="K29" t="n">
-        <v>0.209340270442337</v>
+        <v>0.209562677885482</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.530597304332322</v>
+        <v>-0.506471831467672</v>
       </c>
       <c r="M29" t="n">
-        <v>0.661405586327768</v>
+        <v>0.67486450319587</v>
       </c>
       <c r="N29"/>
       <c r="O29"/>
@@ -2433,40 +2433,40 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.104604239993109</v>
+        <v>-0.10543358354731</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0264909793504458</v>
+        <v>0.0241916542119802</v>
       </c>
       <c r="D30" t="n">
-        <v>-3.9486739470562</v>
+        <v>-4.3582626728807</v>
       </c>
       <c r="E30" t="n">
-        <v>0.00123209218364079</v>
+        <v>0.000533815183674404</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.130677432815026</v>
+        <v>-0.130143391074759</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0293771098679968</v>
+        <v>0.0290631997756954</v>
       </c>
       <c r="H30" t="n">
-        <v>-4.4482739589501</v>
+        <v>-4.47794434471025</v>
       </c>
       <c r="I30" t="n">
-        <v>0.000442604965070023</v>
+        <v>0.000416826594799088</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.134375946785714</v>
+        <v>-0.133730086077863</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0367625419732901</v>
+        <v>0.0365115055058186</v>
       </c>
       <c r="L30" t="n">
-        <v>-3.65524089393342</v>
+        <v>-3.66268342609294</v>
       </c>
       <c r="M30" t="n">
-        <v>0.00226759792563172</v>
+        <v>0.00223303028043965</v>
       </c>
       <c r="N30"/>
       <c r="O30"/>
@@ -2486,40 +2486,40 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.0651202829621552</v>
+        <v>-0.0684254249173582</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0238636730603352</v>
+        <v>0.0252283501126688</v>
       </c>
       <c r="D31" t="n">
-        <v>-2.72884575637245</v>
+        <v>-2.71224335367842</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0174234031619687</v>
+        <v>0.0179833690101746</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.0752143403765945</v>
+        <v>-0.0772016194621158</v>
       </c>
       <c r="G31" t="n">
-        <v>0.026267687615934</v>
+        <v>0.0257129658572913</v>
       </c>
       <c r="H31" t="n">
-        <v>-2.86337882025708</v>
+        <v>-3.00243930982486</v>
       </c>
       <c r="I31" t="n">
-        <v>0.013491577635506</v>
+        <v>0.0103519841366112</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.10811501877796</v>
+        <v>-0.11020569609712</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0366858546879342</v>
+        <v>0.0364114831962896</v>
       </c>
       <c r="L31" t="n">
-        <v>-2.94704920186905</v>
+        <v>-3.02667418141181</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0114855084698556</v>
+        <v>0.00986923025814429</v>
       </c>
       <c r="N31"/>
       <c r="O31"/>
@@ -2539,40 +2539,40 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.00396805137692854</v>
+        <v>-0.025395030546501</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0983390995410482</v>
+        <v>0.11203234463826</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.040350698709339</v>
+        <v>-0.226675882116889</v>
       </c>
       <c r="E32" t="n">
-        <v>0.971124057839186</v>
+        <v>0.839671565977612</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.0520236564209398</v>
+        <v>-0.0507617938287633</v>
       </c>
       <c r="G32" t="n">
-        <v>0.116278531470526</v>
+        <v>0.116460584720997</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.447405516418363</v>
+        <v>-0.435871019799296</v>
       </c>
       <c r="I32" t="n">
-        <v>0.694453128986418</v>
+        <v>0.701656023435688</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.0339638376763494</v>
+        <v>-0.0347138408846727</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0483448393574917</v>
+        <v>0.0488791883964636</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.70253284792612</v>
+        <v>-0.710196752922852</v>
       </c>
       <c r="M32" t="n">
-        <v>0.558965240886473</v>
+        <v>0.555124710120886</v>
       </c>
       <c r="N32"/>
       <c r="O32"/>
@@ -2592,40 +2592,40 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.0668749973737182</v>
+        <v>-0.0489941580666056</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0538163844043836</v>
+        <v>0.0538266528751294</v>
       </c>
       <c r="D33" t="n">
-        <v>-1.2426512504298</v>
+        <v>-0.910221153454691</v>
       </c>
       <c r="E33" t="n">
-        <v>0.250340100593854</v>
+        <v>0.39025257731497</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.0944027077783277</v>
+        <v>-0.0919902657731154</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0561935305708951</v>
+        <v>0.0567249458842562</v>
       </c>
       <c r="H33" t="n">
-        <v>-1.67995687082211</v>
+        <v>-1.62168979342556</v>
       </c>
       <c r="I33" t="n">
-        <v>0.133963934348715</v>
+        <v>0.145869882919016</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.0477323733082546</v>
+        <v>-0.0446985690628023</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0638728583939145</v>
+        <v>0.0646802027726886</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.747302915643468</v>
+        <v>-0.691070329817772</v>
       </c>
       <c r="M33" t="n">
-        <v>0.478224025234689</v>
+        <v>0.510782588449856</v>
       </c>
       <c r="N33"/>
       <c r="O33"/>
@@ -2645,40 +2645,40 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.0830583290567294</v>
+        <v>-0.0902784468513221</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0282864428457523</v>
+        <v>0.0243172578783996</v>
       </c>
       <c r="D34" t="n">
-        <v>-2.93632994115419</v>
+        <v>-3.71252578324277</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0237187474808657</v>
+        <v>0.00860922864475132</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.0635605939407382</v>
+        <v>-0.0628071048583059</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0302333032651915</v>
+        <v>0.0303322621064414</v>
       </c>
       <c r="H34" t="n">
-        <v>-2.10233706132659</v>
+        <v>-2.07063702133077</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0762808074873234</v>
+        <v>0.0801826149164451</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.0873636844139911</v>
+        <v>-0.0858682023422039</v>
       </c>
       <c r="K34" t="n">
-        <v>0.046596004019626</v>
+        <v>0.0466571327030113</v>
       </c>
       <c r="L34" t="n">
-        <v>-1.87491795170234</v>
+        <v>-1.84040890143817</v>
       </c>
       <c r="M34" t="n">
-        <v>0.106398460033862</v>
+        <v>0.112114159485436</v>
       </c>
       <c r="N34"/>
       <c r="O34"/>
@@ -2698,40 +2698,40 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.121746819973229</v>
+        <v>-0.118611513858793</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0465343202942706</v>
+        <v>0.0456511812918236</v>
       </c>
       <c r="D35" t="n">
-        <v>-2.61628018209645</v>
+        <v>-2.59821346353719</v>
       </c>
       <c r="E35" t="n">
-        <v>0.018966593116157</v>
+        <v>0.0197492630531137</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.144822080165682</v>
+        <v>-0.143390471789818</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0436347047287806</v>
+        <v>0.0430917342249003</v>
       </c>
       <c r="H35" t="n">
-        <v>-3.31896551302111</v>
+        <v>-3.32756326402294</v>
       </c>
       <c r="I35" t="n">
-        <v>0.00433949278483337</v>
+        <v>0.00426810260787791</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.121642590187472</v>
+        <v>-0.119862080821472</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0466307796346568</v>
+        <v>0.0460404458006285</v>
       </c>
       <c r="L35" t="n">
-        <v>-2.6086329917818</v>
+        <v>-2.60340834536044</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0197854185507052</v>
+        <v>0.0199998851065538</v>
       </c>
       <c r="N35"/>
       <c r="O35"/>
@@ -2751,40 +2751,40 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>0.00400497876036176</v>
+        <v>0.000299157169103146</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0654258636853227</v>
+        <v>0.0649087278233538</v>
       </c>
       <c r="D36" t="n">
-        <v>0.061213999094065</v>
+        <v>0.00460888973078149</v>
       </c>
       <c r="E36" t="n">
-        <v>0.952864181217776</v>
+        <v>0.996449209560454</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.0448169759647554</v>
+        <v>-0.0396479745331385</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0880715026144973</v>
+        <v>0.0895507737133404</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.508870345506949</v>
+        <v>-0.442742958983861</v>
       </c>
       <c r="I36" t="n">
-        <v>0.626540169788407</v>
+        <v>0.67124491388664</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0406532013469661</v>
+        <v>0.0465671321379906</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0894459641904571</v>
+        <v>0.0914099457849211</v>
       </c>
       <c r="L36" t="n">
-        <v>0.454500118757771</v>
+        <v>0.509431788172795</v>
       </c>
       <c r="M36" t="n">
-        <v>0.664059879075714</v>
+        <v>0.626923664789902</v>
       </c>
       <c r="N36"/>
       <c r="O36"/>
@@ -2804,40 +2804,40 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.0206095638940787</v>
+        <v>-0.0417084355809061</v>
       </c>
       <c r="C37" t="n">
-        <v>0.155634196329626</v>
+        <v>0.152604130138498</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.13242310738977</v>
+        <v>-0.273311315644294</v>
       </c>
       <c r="E37" t="n">
-        <v>0.896912971836235</v>
+        <v>0.789385497144709</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0336098603934831</v>
+        <v>0.028525082798222</v>
       </c>
       <c r="G37" t="n">
-        <v>0.15092777722005</v>
+        <v>0.14636208225198</v>
       </c>
       <c r="H37" t="n">
-        <v>0.222688367989945</v>
+        <v>0.194893939463861</v>
       </c>
       <c r="I37" t="n">
-        <v>0.827869590169283</v>
+        <v>0.849049766356949</v>
       </c>
       <c r="J37" t="n">
-        <v>0.124337829180172</v>
+        <v>0.117886028814953</v>
       </c>
       <c r="K37" t="n">
-        <v>0.159483642386469</v>
+        <v>0.154078772662153</v>
       </c>
       <c r="L37" t="n">
-        <v>0.779627473511485</v>
+        <v>0.765102335501077</v>
       </c>
       <c r="M37" t="n">
-        <v>0.452833009049004</v>
+        <v>0.461148641686647</v>
       </c>
       <c r="N37"/>
       <c r="O37"/>
@@ -2857,40 +2857,40 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>0.234085806839265</v>
+        <v>0.241677883233094</v>
       </c>
       <c r="C38" t="n">
-        <v>0.138953709667137</v>
+        <v>0.148238298980269</v>
       </c>
       <c r="D38" t="n">
-        <v>1.68463157550825</v>
+        <v>1.63033362427656</v>
       </c>
       <c r="E38" t="n">
-        <v>0.199105019277608</v>
+        <v>0.208676042300685</v>
       </c>
       <c r="F38" t="n">
-        <v>0.523758450717223</v>
+        <v>0.527127470546142</v>
       </c>
       <c r="G38" t="n">
-        <v>0.200434205483335</v>
+        <v>0.203670428366443</v>
       </c>
       <c r="H38" t="n">
-        <v>2.61311910037616</v>
+        <v>2.58813945045442</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0958619019998812</v>
+        <v>0.0975389387534114</v>
       </c>
       <c r="J38" t="n">
-        <v>0.599084447246235</v>
+        <v>0.603178408395963</v>
       </c>
       <c r="K38" t="n">
-        <v>0.141154463718202</v>
+        <v>0.144711129200853</v>
       </c>
       <c r="L38" t="n">
-        <v>4.24417642535367</v>
+        <v>4.16815494238026</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0358281200343923</v>
+        <v>0.0371809316652172</v>
       </c>
       <c r="N38"/>
       <c r="O38"/>
@@ -2910,40 +2910,40 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>0.393358553150212</v>
+        <v>0.402030926195699</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0357592494528385</v>
+        <v>0.0348058076413116</v>
       </c>
       <c r="D39" t="n">
-        <v>11.0001904169996</v>
+        <v>11.5506851712448</v>
       </c>
       <c r="E39" t="n">
-        <v>0.00443253248390752</v>
+        <v>0.0038525611989387</v>
       </c>
       <c r="F39" t="n">
-        <v>0.348641308451206</v>
+        <v>0.348536644822458</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0553839423466769</v>
+        <v>0.0561496910641794</v>
       </c>
       <c r="H39" t="n">
-        <v>6.29498901087392</v>
+        <v>6.20727626843181</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0177332073146424</v>
+        <v>0.0182782795714352</v>
       </c>
       <c r="J39" t="n">
-        <v>0.351786957453074</v>
+        <v>0.351001329461074</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0629744800333185</v>
+        <v>0.063625984492358</v>
       </c>
       <c r="L39" t="n">
-        <v>5.58618280400173</v>
+        <v>5.51663494500793</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0229132902476744</v>
+        <v>0.0235326505437013</v>
       </c>
       <c r="N39"/>
       <c r="O39"/>
@@ -2963,40 +2963,40 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>0.625201609210833</v>
+        <v>0.6297154093267</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0530028394053654</v>
+        <v>0.0529840811614107</v>
       </c>
       <c r="D40" t="n">
-        <v>11.7956248424597</v>
+        <v>11.884992539709</v>
       </c>
       <c r="E40" t="n">
-        <v>0.000603501750635834</v>
+        <v>0.000554301850217998</v>
       </c>
       <c r="F40" t="n">
-        <v>0.588289955062728</v>
+        <v>0.587848366095621</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0761795653500773</v>
+        <v>0.0769444493032019</v>
       </c>
       <c r="H40" t="n">
-        <v>7.7224115464467</v>
+        <v>7.63990608054374</v>
       </c>
       <c r="I40" t="n">
-        <v>0.00305882329170155</v>
+        <v>0.00311951575952896</v>
       </c>
       <c r="J40" t="n">
-        <v>0.606467385800068</v>
+        <v>0.605954599894526</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0866860013053198</v>
+        <v>0.0879339137891345</v>
       </c>
       <c r="L40" t="n">
-        <v>6.9961398226688</v>
+        <v>6.89102274405306</v>
       </c>
       <c r="M40" t="n">
-        <v>0.00433054129658642</v>
+        <v>0.00448430276648115</v>
       </c>
       <c r="N40"/>
       <c r="O40"/>
@@ -3016,40 +3016,40 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>0.628787123218119</v>
+        <v>0.636687099178337</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0590348118561222</v>
+        <v>0.0626642410549301</v>
       </c>
       <c r="D41" t="n">
-        <v>10.6511243696445</v>
+        <v>10.1602937889287</v>
       </c>
       <c r="E41" t="n">
-        <v>0.000030062106886436</v>
+        <v>0.0000385824395615997</v>
       </c>
       <c r="F41" t="n">
-        <v>0.588671957090968</v>
+        <v>0.589859830853612</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0875514916614808</v>
+        <v>0.0895018531333164</v>
       </c>
       <c r="H41" t="n">
-        <v>6.72372275925438</v>
+        <v>6.59047617678926</v>
       </c>
       <c r="I41" t="n">
-        <v>0.000496004112138902</v>
+        <v>0.000549489998934178</v>
       </c>
       <c r="J41" t="n">
-        <v>0.595418060928337</v>
+        <v>0.596464511286092</v>
       </c>
       <c r="K41" t="n">
-        <v>0.098024366930611</v>
+        <v>0.100265525452116</v>
       </c>
       <c r="L41" t="n">
-        <v>6.07418420105501</v>
+        <v>5.94884940358634</v>
       </c>
       <c r="M41" t="n">
-        <v>0.000869623535412529</v>
+        <v>0.000966339269876556</v>
       </c>
       <c r="N41"/>
       <c r="O41"/>
@@ -3069,40 +3069,40 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>0.650907666091428</v>
+        <v>0.656606060059117</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0487772927203166</v>
+        <v>0.0505126388822825</v>
       </c>
       <c r="D42" t="n">
-        <v>13.344481208165</v>
+        <v>12.998846914122</v>
       </c>
       <c r="E42" t="n">
-        <v>0.000027358254599682</v>
+        <v>0.0000303287289560928</v>
       </c>
       <c r="F42" t="n">
-        <v>0.616165468026425</v>
+        <v>0.616271375331138</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0760758496411773</v>
+        <v>0.0772895494939917</v>
       </c>
       <c r="H42" t="n">
-        <v>8.09935703554621</v>
+        <v>7.97354078741325</v>
       </c>
       <c r="I42" t="n">
-        <v>0.000424283818400081</v>
+        <v>0.000453627022793547</v>
       </c>
       <c r="J42" t="n">
-        <v>0.618810438234348</v>
+        <v>0.618417072612144</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0880066647358628</v>
+        <v>0.0893414122887521</v>
       </c>
       <c r="L42" t="n">
-        <v>7.03140427025162</v>
+        <v>6.92195317680244</v>
       </c>
       <c r="M42" t="n">
-        <v>0.000866871313100043</v>
+        <v>0.000926262322410878</v>
       </c>
       <c r="N42"/>
       <c r="O42"/>
@@ -3122,40 +3122,40 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>0.586016822638004</v>
+        <v>0.594831851489617</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0420942503174177</v>
+        <v>0.0477884942125389</v>
       </c>
       <c r="D43" t="n">
-        <v>13.9215407857145</v>
+        <v>12.4471771143093</v>
       </c>
       <c r="E43" t="n">
-        <v>0.000000342384019020811</v>
+        <v>0.000000867129874925371</v>
       </c>
       <c r="F43" t="n">
-        <v>0.537747834602475</v>
+        <v>0.539554934664865</v>
       </c>
       <c r="G43" t="n">
-        <v>0.080946278835573</v>
+        <v>0.0827645067261746</v>
       </c>
       <c r="H43" t="n">
-        <v>6.64326813212511</v>
+        <v>6.51915846547574</v>
       </c>
       <c r="I43" t="n">
-        <v>0.000131313097785548</v>
+        <v>0.000149301020407909</v>
       </c>
       <c r="J43" t="n">
-        <v>0.534283582341664</v>
+        <v>0.535934331966545</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0942654560676914</v>
+        <v>0.0963591333164469</v>
       </c>
       <c r="L43" t="n">
-        <v>5.66786185130211</v>
+        <v>5.56184259364929</v>
       </c>
       <c r="M43" t="n">
-        <v>0.000410046933941589</v>
+        <v>0.000463560074337275</v>
       </c>
       <c r="N43"/>
       <c r="O43"/>
@@ -3175,40 +3175,40 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0000276683807204766</v>
+        <v>0.0000294432387195974</v>
       </c>
       <c r="C44" t="n">
-        <v>0.000129966521927701</v>
+        <v>0.000118660145283536</v>
       </c>
       <c r="D44" t="n">
-        <v>0.21288852167536</v>
+        <v>0.248130816368404</v>
       </c>
       <c r="E44" t="n">
-        <v>0.836040255398327</v>
+        <v>0.809464285498564</v>
       </c>
       <c r="F44" t="n">
-        <v>0.00013102627735858</v>
+        <v>0.000144816814344504</v>
       </c>
       <c r="G44" t="n">
-        <v>0.000138581544676598</v>
+        <v>0.000132803736938171</v>
       </c>
       <c r="H44" t="n">
-        <v>0.945481432353425</v>
+        <v>1.09045737479455</v>
       </c>
       <c r="I44" t="n">
-        <v>0.369115801747359</v>
+        <v>0.303847180663411</v>
       </c>
       <c r="J44" t="n">
-        <v>-0.000127435579402627</v>
+        <v>-0.000111540814392568</v>
       </c>
       <c r="K44" t="n">
-        <v>0.000230860788819838</v>
+        <v>0.000225351638797091</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.552001836492366</v>
+        <v>-0.494963404694832</v>
       </c>
       <c r="M44" t="n">
-        <v>0.59477964287939</v>
+        <v>0.632820715409178</v>
       </c>
       <c r="N44"/>
       <c r="O44"/>
@@ -3228,40 +3228,40 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>0.00463003155136666</v>
+        <v>0.00448941383409514</v>
       </c>
       <c r="C45" t="n">
-        <v>0.00480781412343279</v>
+        <v>0.00502443365510698</v>
       </c>
       <c r="D45" t="n">
-        <v>0.963022161942651</v>
+        <v>0.893516392545449</v>
       </c>
       <c r="E45" t="n">
-        <v>0.349658007752419</v>
+        <v>0.384627385341402</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.000751943761416731</v>
+        <v>0.0000215982700692653</v>
       </c>
       <c r="G45" t="n">
-        <v>0.00466697312338179</v>
+        <v>0.00447237002009397</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.161120225366084</v>
+        <v>0.00482926725030043</v>
       </c>
       <c r="I45" t="n">
-        <v>0.873987069777353</v>
+        <v>0.996205670080689</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.0084707708435611</v>
+        <v>-0.00758492087199115</v>
       </c>
       <c r="K45" t="n">
-        <v>0.0055216879584638</v>
+        <v>0.00542501397313893</v>
       </c>
       <c r="L45" t="n">
-        <v>-1.53409082644318</v>
+        <v>-1.3981384950429</v>
       </c>
       <c r="M45" t="n">
-        <v>0.144238375035295</v>
+        <v>0.180856807512126</v>
       </c>
       <c r="N45"/>
       <c r="O45"/>
@@ -3281,40 +3281,40 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>0.00830154557443623</v>
+        <v>0.00391821556417348</v>
       </c>
       <c r="C46" t="n">
-        <v>0.00447731377791508</v>
+        <v>0.0027619838507191</v>
       </c>
       <c r="D46" t="n">
-        <v>1.85413531108422</v>
+        <v>1.41862363284758</v>
       </c>
       <c r="E46" t="n">
-        <v>0.153177215623116</v>
+        <v>0.240162054806403</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0136727246794569</v>
+        <v>0.0105668818010005</v>
       </c>
       <c r="G46" t="n">
-        <v>0.00396478143817937</v>
+        <v>0.00414712559102724</v>
       </c>
       <c r="H46" t="n">
-        <v>3.44854436307477</v>
+        <v>2.54800139736859</v>
       </c>
       <c r="I46" t="n">
-        <v>0.0364343877123123</v>
+        <v>0.0744791792922687</v>
       </c>
       <c r="J46" t="n">
-        <v>0.0187396622564506</v>
+        <v>0.0151904643300716</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0027211321638592</v>
+        <v>0.00270601474316524</v>
       </c>
       <c r="L46" t="n">
-        <v>6.88671520822913</v>
+        <v>5.61359259717235</v>
       </c>
       <c r="M46" t="n">
-        <v>0.00484152531283933</v>
+        <v>0.0078877544528477</v>
       </c>
       <c r="N46"/>
       <c r="O46"/>
@@ -3334,28 +3334,28 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.00543056232031259</v>
+        <v>-0.00554366509985975</v>
       </c>
       <c r="C47" t="n">
-        <v>0.00703927542720751</v>
+        <v>0.00688687393558039</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.771466094269152</v>
+        <v>-0.804961024655748</v>
       </c>
       <c r="E47" t="n">
-        <v>0.459627614377598</v>
+        <v>0.441107045813979</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.0093142706152162</v>
+        <v>-0.00896480195477665</v>
       </c>
       <c r="G47" t="n">
-        <v>0.00953672512171162</v>
+        <v>0.009488573058829</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.976673910209599</v>
+        <v>-0.944799802793847</v>
       </c>
       <c r="I47" t="n">
-        <v>0.35310557740714</v>
+        <v>0.368337545060512</v>
       </c>
       <c r="J47"/>
       <c r="K47"/>
@@ -3379,28 +3379,28 @@
         <v>71</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.0424899546127846</v>
+        <v>-0.0513166483564893</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0333095797024871</v>
+        <v>0.0330822428192902</v>
       </c>
       <c r="D48" t="n">
-        <v>-1.27560764777864</v>
+        <v>-1.55118407892728</v>
       </c>
       <c r="E48" t="n">
-        <v>0.223583796844813</v>
+        <v>0.144094871196973</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.0278441781613869</v>
+        <v>-0.0313906135007471</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0387364660132222</v>
+        <v>0.0375125169218252</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.718810491176005</v>
+        <v>-0.83680371450852</v>
       </c>
       <c r="I48" t="n">
-        <v>0.484542298992432</v>
+        <v>0.417373754107397</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
@@ -3424,28 +3424,28 @@
         <v>72</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.00943535041443163</v>
+        <v>-0.00811881169759704</v>
       </c>
       <c r="C49" t="n">
-        <v>0.00805900035145196</v>
+        <v>0.00813638684162142</v>
       </c>
       <c r="D49" t="n">
-        <v>-1.17078421677097</v>
+        <v>-0.997839932593362</v>
       </c>
       <c r="E49" t="n">
-        <v>0.268495897183609</v>
+        <v>0.341478867166154</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.00566891211165279</v>
+        <v>-0.005288076058244</v>
       </c>
       <c r="G49" t="n">
-        <v>0.00955063946468753</v>
+        <v>0.00948891576479655</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.593563617662775</v>
+        <v>-0.55728980942823</v>
       </c>
       <c r="I49" t="n">
-        <v>0.567153490960697</v>
+        <v>0.590676886232725</v>
       </c>
       <c r="J49"/>
       <c r="K49"/>
@@ -3469,28 +3469,28 @@
         <v>73</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.00606026175537094</v>
+        <v>-0.00656499316821075</v>
       </c>
       <c r="C50" t="n">
-        <v>0.00610266845473615</v>
+        <v>0.00613147607927601</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.993051121869107</v>
+        <v>-1.07070354402915</v>
       </c>
       <c r="E50" t="n">
-        <v>0.337221398214754</v>
+        <v>0.302045794433451</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.00493070561973865</v>
+        <v>-0.00489600483122128</v>
       </c>
       <c r="G50" t="n">
-        <v>0.00816335958075265</v>
+        <v>0.00818208998674238</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.604004462986554</v>
+        <v>-0.598380711915217</v>
       </c>
       <c r="I50" t="n">
-        <v>0.555540953099358</v>
+        <v>0.559197736846112</v>
       </c>
       <c r="J50"/>
       <c r="K50"/>
@@ -3514,28 +3514,28 @@
         <v>74</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.00138436139294894</v>
+        <v>-0.00126528527200318</v>
       </c>
       <c r="C51" t="n">
-        <v>0.00177093636660102</v>
+        <v>0.00163541544414681</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.781711539193223</v>
+        <v>-0.773678196895879</v>
       </c>
       <c r="E51" t="n">
-        <v>0.568620454360538</v>
+        <v>0.572076690871217</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.000646303563610305</v>
+        <v>-0.00063913215330603</v>
       </c>
       <c r="G51" t="n">
-        <v>0.00560625320242367</v>
+        <v>0.00568859255334183</v>
       </c>
       <c r="H51" t="n">
-        <v>-0.115282621079422</v>
+        <v>-0.112353301332957</v>
       </c>
       <c r="I51" t="n">
-        <v>0.925742802512054</v>
+        <v>0.927613756715835</v>
       </c>
       <c r="J51"/>
       <c r="K51"/>
@@ -3559,28 +3559,28 @@
         <v>75</v>
       </c>
       <c r="B52" t="n">
-        <v>0.017100937724074</v>
+        <v>0.0170208944690918</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0131538590018416</v>
+        <v>0.0127293007139762</v>
       </c>
       <c r="D52" t="n">
-        <v>1.30007001912365</v>
+        <v>1.33714293122195</v>
       </c>
       <c r="E52" t="n">
-        <v>0.217188418804048</v>
+        <v>0.20536945829869</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0230223503148724</v>
+        <v>0.0220041544900124</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0146552703894699</v>
+        <v>0.0145007576573595</v>
       </c>
       <c r="H52" t="n">
-        <v>1.57092634274522</v>
+        <v>1.5174486057868</v>
       </c>
       <c r="I52" t="n">
-        <v>0.1409382924284</v>
+        <v>0.153759421777351</v>
       </c>
       <c r="J52"/>
       <c r="K52"/>
@@ -3604,28 +3604,28 @@
         <v>76</v>
       </c>
       <c r="B53" t="n">
-        <v>0.00947533771413664</v>
+        <v>0.00970750408379449</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0138780627941698</v>
+        <v>0.0123782111953985</v>
       </c>
       <c r="D53" t="n">
-        <v>0.68275650965618</v>
+        <v>0.784241271259222</v>
       </c>
       <c r="E53" t="n">
-        <v>0.50517355334644</v>
+        <v>0.445121307290045</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0155439823798725</v>
+        <v>0.0163851392665828</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0173950832474622</v>
+        <v>0.0173997730721488</v>
       </c>
       <c r="H53" t="n">
-        <v>0.893584822719386</v>
+        <v>0.941686951814901</v>
       </c>
       <c r="I53" t="n">
-        <v>0.385591994531993</v>
+        <v>0.361184112151762</v>
       </c>
       <c r="J53"/>
       <c r="K53"/>
@@ -3649,28 +3649,28 @@
         <v>77</v>
       </c>
       <c r="B54" t="n">
-        <v>0.00000366251435762627</v>
+        <v>0.00000429678386635926</v>
       </c>
       <c r="C54" t="n">
-        <v>0.00000529209808900051</v>
+        <v>0.00000532527507122782</v>
       </c>
       <c r="D54" t="n">
-        <v>0.692072273799819</v>
+        <v>0.806866088396928</v>
       </c>
       <c r="E54" t="n">
-        <v>0.50233352974488</v>
+        <v>0.435686119430428</v>
       </c>
       <c r="F54" t="n">
-        <v>0.00000427184727288797</v>
+        <v>0.00000415330905704033</v>
       </c>
       <c r="G54" t="n">
-        <v>0.00000642197876355526</v>
+        <v>0.00000643049517947584</v>
       </c>
       <c r="H54" t="n">
-        <v>0.665191746994043</v>
+        <v>0.645877018973036</v>
       </c>
       <c r="I54" t="n">
-        <v>0.519798124399571</v>
+        <v>0.531778588216037</v>
       </c>
       <c r="J54"/>
       <c r="K54"/>
@@ -3694,28 +3694,28 @@
         <v>78</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0000122935836431221</v>
+        <v>0.0000124784168717458</v>
       </c>
       <c r="C55" t="n">
-        <v>0.00000257086347288896</v>
+        <v>0.0000026395741161206</v>
       </c>
       <c r="D55" t="n">
-        <v>4.78188895395034</v>
+        <v>4.72743568575578</v>
       </c>
       <c r="E55" t="n">
-        <v>0.00023521105059135</v>
+        <v>0.000261718092431743</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0000140425282395763</v>
+        <v>0.0000140692542705658</v>
       </c>
       <c r="G55" t="n">
-        <v>0.00000360755200648098</v>
+        <v>0.00000362321991881622</v>
       </c>
       <c r="H55" t="n">
-        <v>3.89253660497446</v>
+        <v>3.88308040522213</v>
       </c>
       <c r="I55" t="n">
-        <v>0.00164071443917826</v>
+        <v>0.00167214863752678</v>
       </c>
       <c r="J55"/>
       <c r="K55"/>
@@ -3739,16 +3739,16 @@
         <v>79</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.550172485252855</v>
+        <v>-0.469025779210748</v>
       </c>
       <c r="C56" t="n">
-        <v>0.271353953708009</v>
+        <v>0.163816555306473</v>
       </c>
       <c r="D56" t="n">
-        <v>-2.02750863856905</v>
+        <v>-2.86311586965848</v>
       </c>
       <c r="E56" t="n">
-        <v>0.071755931171782</v>
+        <v>0.0242568900862466</v>
       </c>
       <c r="F56"/>
       <c r="G56"/>
@@ -3776,16 +3776,16 @@
         <v>80</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.226145435783342</v>
+        <v>-0.163336994996162</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0599005681361799</v>
+        <v>0.0567641974885087</v>
       </c>
       <c r="D57" t="n">
-        <v>-3.77534709302282</v>
+        <v>-2.87746506112815</v>
       </c>
       <c r="E57" t="n">
-        <v>0.00211747809709357</v>
+        <v>0.0129969850259771</v>
       </c>
       <c r="F57"/>
       <c r="G57"/>
@@ -3813,16 +3813,16 @@
         <v>81</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.40575741757083</v>
+        <v>-0.401299311853055</v>
       </c>
       <c r="C58" t="n">
-        <v>0.131149842422855</v>
+        <v>0.137549254737056</v>
       </c>
       <c r="D58" t="n">
-        <v>-3.09384601670036</v>
+        <v>-2.91749535553786</v>
       </c>
       <c r="E58" t="n">
-        <v>0.00799692388280201</v>
+        <v>0.011017619455458</v>
       </c>
       <c r="F58"/>
       <c r="G58"/>
@@ -3850,16 +3850,16 @@
         <v>82</v>
       </c>
       <c r="B59" t="n">
-        <v>0.282031268449906</v>
+        <v>0.302516686934421</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0800950098892573</v>
+        <v>0.0841155917725194</v>
       </c>
       <c r="D59" t="n">
-        <v>3.52120898467775</v>
+        <v>3.59644009582125</v>
       </c>
       <c r="E59" t="n">
-        <v>0.00280125155534782</v>
+        <v>0.00255586866324962</v>
       </c>
       <c r="F59"/>
       <c r="G59"/>
@@ -3887,16 +3887,16 @@
         <v>83</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.610656287623303</v>
+        <v>-0.649651363835644</v>
       </c>
       <c r="C60" t="n">
-        <v>0.112879522623849</v>
+        <v>0.0972052492426005</v>
       </c>
       <c r="D60" t="n">
-        <v>-5.40980572409231</v>
+        <v>-6.68329507817292</v>
       </c>
       <c r="E60" t="n">
-        <v>0.000701011653089997</v>
+        <v>0.000220884863781425</v>
       </c>
       <c r="F60"/>
       <c r="G60"/>
